--- a/biology/Botanique/Boletus_rex-veris/Boletus_rex-veris.xlsx
+++ b/biology/Botanique/Boletus_rex-veris/Boletus_rex-veris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus rex-veris, de son nom vernaculaire le Cèpe Roi du printemps[2], est un champignon basidiomycète du genre Boletus de l'Ouest de l'Amérique du Nord de la Californie à l'Oregon. Boletus rex-veris est comestible et peut être conservé et cuit. Ses différences avec Boletus edulis sont caractérisées par un pied très clair et une cuticule rose.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus rex-veris, de son nom vernaculaire le Cèpe Roi du printemps, est un champignon basidiomycète du genre Boletus de l'Ouest de l'Amérique du Nord de la Californie à l'Oregon. Boletus rex-veris est comestible et peut être conservé et cuit. Ses différences avec Boletus edulis sont caractérisées par un pied très clair et une cuticule rose.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Classification Phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant de nombreuses années, Boletus rex-veris était considéré comme une sous-espèces ou une variété de Boletus edulis. En 2008, une révision taxonomique de la population des espèces de l'ouest nord-américain a été publiée, a établi formellement  Boletus rex-veris comme une espèce distincte. Les analyses phylogénétiques ont montré Boletus rex-veris en tant que MRCA[3] d'un clade ou groupe étroitement lié avec Boletus fibrillosus, Boletus pinophilus, Boletus subcaerulescens, Boletus subalpinus et Boletus regineus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant de nombreuses années, Boletus rex-veris était considéré comme une sous-espèces ou une variété de Boletus edulis. En 2008, une révision taxonomique de la population des espèces de l'ouest nord-américain a été publiée, a établi formellement  Boletus rex-veris comme une espèce distincte. Les analyses phylogénétiques ont montré Boletus rex-veris en tant que MRCA d'un clade ou groupe étroitement lié avec Boletus fibrillosus, Boletus pinophilus, Boletus subcaerulescens, Boletus subalpinus et Boletus regineus.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau, comme avec d'autres bolets, la taille du sporophore est variable. 
 Cuticule: Il a une cuticule rose à brune. 
@@ -575,7 +591,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus rex-veris se trouve sous les pins (Pinus ponderosa, Pinus contorta subsp. murrayana) et sapins (Abies concolor et Abies sp.) à des altitudes de 900 à 2 000 m.
 Il est souvent enfoui sous les aiguilles de Mai à Juin, en Californie. 
@@ -608,7 +626,9 @@
           <t>Saison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus rex-veris apparait généralement de Mai à Juin.
 </t>
@@ -639,7 +659,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus rex-veris est comestible et délicieux. Il a une valeur commerciale dans les zones où il est prolifique. Boletus rex-veris est comestible et peut être conservé et cuit.
 </t>
